--- a/regions/12/mretsveloba/mretsveloba.xlsx
+++ b/regions/12/mretsveloba/mretsveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
@@ -493,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +502,7 @@
     <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -520,7 +520,7 @@
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5">
         <v>2006</v>
@@ -567,8 +567,14 @@
       <c r="P2" s="6">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q2" s="6">
+        <v>2021</v>
+      </c>
+      <c r="R2" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -617,8 +623,14 @@
       <c r="P3" s="10">
         <v>776.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q3" s="10">
+        <v>890.8</v>
+      </c>
+      <c r="R3" s="10">
+        <v>1141.0999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -667,8 +679,14 @@
       <c r="P4" s="10">
         <v>760.7</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q4" s="10">
+        <v>862.9</v>
+      </c>
+      <c r="R4" s="10">
+        <v>1136.0999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -717,8 +735,14 @@
       <c r="P5" s="8">
         <v>4860</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q5" s="8">
+        <v>4945</v>
+      </c>
+      <c r="R5" s="8">
+        <v>5060</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -767,8 +791,14 @@
       <c r="P6" s="8">
         <v>4568</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q6" s="8">
+        <v>4715</v>
+      </c>
+      <c r="R6" s="8">
+        <v>4738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -817,8 +847,14 @@
       <c r="P7" s="10">
         <v>1054.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q7" s="10">
+        <v>1165.4000000000001</v>
+      </c>
+      <c r="R7" s="10">
+        <v>1369.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
@@ -867,8 +903,14 @@
       <c r="P8" s="10">
         <v>515</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q8" s="10">
+        <v>615.6</v>
+      </c>
+      <c r="R8" s="10">
+        <v>806.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -917,8 +959,14 @@
       <c r="P9" s="10">
         <v>61.7</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q9" s="10">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="R9" s="10">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
@@ -967,8 +1015,14 @@
       <c r="P10" s="10">
         <v>245.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q10" s="10">
+        <v>247.3</v>
+      </c>
+      <c r="R10" s="10">
+        <v>329.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -1017,8 +1071,14 @@
       <c r="P11" s="10">
         <v>42.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="Q11" s="10">
+        <v>26.8</v>
+      </c>
+      <c r="R11" s="10">
+        <v>58.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
@@ -1067,11 +1127,17 @@
       <c r="P12" s="10">
         <v>579.79999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="10">
+        <v>647.29999999999995</v>
+      </c>
+      <c r="R12" s="10">
+        <v>832.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="15" spans="1:16" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>

--- a/regions/12/mretsveloba/mretsveloba.xlsx
+++ b/regions/12/mretsveloba/mretsveloba.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -493,7 +493,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +502,7 @@
     <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -520,7 +520,7 @@
       <c r="M1" s="11"/>
       <c r="N1" s="11"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="5">
         <v>2006</v>
@@ -573,8 +573,11 @@
       <c r="R2" s="6">
         <v>2022</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S2" s="6">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
@@ -629,8 +632,11 @@
       <c r="R3" s="10">
         <v>1141.0999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S3" s="10">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
@@ -685,8 +691,11 @@
       <c r="R4" s="10">
         <v>1136.0999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S4" s="10">
+        <v>1106.5999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
@@ -741,8 +750,11 @@
       <c r="R5" s="8">
         <v>5060</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S5" s="8">
+        <v>5335</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
@@ -797,8 +809,11 @@
       <c r="R6" s="8">
         <v>4738</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S6" s="8">
+        <v>5198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
@@ -853,8 +868,11 @@
       <c r="R7" s="10">
         <v>1369.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S7" s="10">
+        <v>1462.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>2</v>
       </c>
@@ -909,8 +927,11 @@
       <c r="R8" s="10">
         <v>806.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S8" s="10">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -965,8 +986,11 @@
       <c r="R9" s="10">
         <v>83.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S9" s="10">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>3</v>
       </c>
@@ -1021,8 +1045,11 @@
       <c r="R10" s="10">
         <v>329.8</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S10" s="10">
+        <v>347.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>5</v>
       </c>
@@ -1077,8 +1104,11 @@
       <c r="R11" s="10">
         <v>58.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="S11" s="10">
+        <v>46.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>4</v>
       </c>
@@ -1133,11 +1163,14 @@
       <c r="R12" s="10">
         <v>832.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="S12" s="10">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
     </row>
-    <row r="15" spans="1:18" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
